--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
@@ -5976,7 +5976,7 @@
         <v>59089.7756412481</v>
       </c>
       <c r="D216">
-        <v>21551.15299790004</v>
+        <v>21551.15299790005</v>
       </c>
       <c r="E216">
         <v>60239.67339789643</v>
